--- a/results/FrequencyTables/26607397_LTR-5.xlsx
+++ b/results/FrequencyTables/26607397_LTR-5.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0101010101010101</v>
+        <v>0.0118606375092661</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00593031875463306</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00593031875463306</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00889547813194959</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.011119347664937</v>
       </c>
       <c r="H2">
-        <v>0.0606060606060606</v>
+        <v>0.116382505559674</v>
       </c>
       <c r="I2">
-        <v>0.0101010101010101</v>
+        <v>0.0429948109710897</v>
       </c>
       <c r="J2">
-        <v>0.0404040404040404</v>
+        <v>0.0148257968865827</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="L2">
-        <v>0.0101010101010101</v>
+        <v>0.00889547813194959</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.000741289844329133</v>
       </c>
       <c r="P2">
-        <v>0.0101010101010101</v>
+        <v>0.0185322461082283</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="R2">
-        <v>0.0202020202020202</v>
+        <v>0.00815418828762046</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.982209043736101</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00815418828762046</v>
       </c>
       <c r="U2">
-        <v>0.0101010101010101</v>
+        <v>0.0422535211267606</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0289103039288362</v>
       </c>
       <c r="W2">
-        <v>0.0101010101010101</v>
+        <v>0.00815418828762046</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0022238695329874</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,52 +539,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="D3">
-        <v>0.717171717171717</v>
+        <v>0.687916975537435</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="F3">
-        <v>0.0404040404040404</v>
+        <v>0.0378057820607858</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00593031875463306</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00518902891030393</v>
       </c>
       <c r="I3">
-        <v>0.96969696969697</v>
+        <v>0.916234247590808</v>
       </c>
       <c r="J3">
-        <v>0.95959595959596</v>
+        <v>0.97405485544848</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00518902891030393</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00370644922164566</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00518902891030393</v>
       </c>
       <c r="O3">
-        <v>0.94949494949495</v>
+        <v>0.983691623424759</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.000741289844329133</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -593,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.981467753891772</v>
       </c>
       <c r="U3">
-        <v>0.141414141414141</v>
+        <v>0.0896960711638251</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00296515937731653</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.98989898989899</v>
+        <v>0.98295033358043</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.99110452186805</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00963676797627873</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.985174203113417</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0192735359525575</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.979243884358784</v>
       </c>
       <c r="H4">
-        <v>0.939393939393939</v>
+        <v>0.865826538176427</v>
       </c>
       <c r="I4">
-        <v>0.0101010101010101</v>
+        <v>0.00296515937731653</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0101010101010101</v>
+        <v>0.022238695329874</v>
       </c>
       <c r="L4">
-        <v>0.98989898989899</v>
+        <v>0.98295033358043</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.994069681245367</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.988880652335063</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="P4">
-        <v>0.98989898989899</v>
+        <v>0.972572275759822</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.997776130467013</v>
       </c>
       <c r="R4">
-        <v>0.97979797979798</v>
+        <v>0.985915492957746</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0170496664195701</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="U4">
-        <v>0.0505050505050505</v>
+        <v>0.0259451445515196</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.966641957005189</v>
       </c>
       <c r="W4">
-        <v>0.98989898989899</v>
+        <v>0.987398072646405</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.992587101556709</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00370644922164566</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.000741289844329133</v>
       </c>
       <c r="D5">
-        <v>0.282828282828283</v>
+        <v>0.296515937731653</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00370644922164566</v>
       </c>
       <c r="F5">
-        <v>0.95959595959596</v>
+        <v>0.941438102297999</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00370644922164566</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0118606375092661</v>
       </c>
       <c r="I5">
-        <v>0.0101010101010101</v>
+        <v>0.0370644922164566</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.011119347664937</v>
       </c>
       <c r="K5">
-        <v>0.98989898989899</v>
+        <v>0.97405485544848</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000741289844329133</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00296515937731653</v>
       </c>
       <c r="O5">
-        <v>0.0505050505050505</v>
+        <v>0.0133432171979244</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00667160859896219</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00593031875463306</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000741289844329133</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00889547813194959</v>
       </c>
       <c r="U5">
-        <v>0.797979797979798</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0044477390659748</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00148257968865827</v>
       </c>
     </row>
   </sheetData>
